--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_185.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_185.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32825-d78224-Reviews-Days_Inn_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Days-Inn-By-Wyndham-Orange-Anaheim.h14058.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_185.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_185.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1359 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r562611574-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>32825</t>
+  </si>
+  <si>
+    <t>78224</t>
+  </si>
+  <si>
+    <t>562611574</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Weekend Stay</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights on Fri and Sat. Really liked the room. Good rate for a weekend stay. We went to Universal Studios and Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Leonard H, General Manager at Days Inn by Wyndham Orange Anaheim, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights on Fri and Sat. Really liked the room. Good rate for a weekend stay. We went to Universal Studios and Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r556373583-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>556373583</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Days Inn, Orange, CA.</t>
+  </si>
+  <si>
+    <t>Overall the room was satisfactory. The room seemed clean. I was surprised they had no local phone service, also, the phone cord broke, and I was unable to call the desk. They were accommodating with room placement request. The desk clerk was difficult to understand. He spoke too fast when answering the phone, so I had to have repeat everything he said.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Overall the room was satisfactory. The room seemed clean. I was surprised they had no local phone service, also, the phone cord broke, and I was unable to call the desk. They were accommodating with room placement request. The desk clerk was difficult to understand. He spoke too fast when answering the phone, so I had to have repeat everything he said.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r555594144-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>555594144</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Diamond Member Upgrade</t>
+  </si>
+  <si>
+    <t>For the first time I received an upgrade on my room, a perk for Diamond Level Members that up until now has never happened.  I was upgraded from a King to a King Suite which had an oversized tub, great shower head, pullout sofa bed, and 2 TVs.  A King bed and TV in 1 room with door, and sofa bed, TV, fridge, and microwave in the other.  It looked newly remolded with a wood floor.But now for the down side, why do guests put their feet/shoes on the wall?  There were many scuff marks on the wall, squished raisins on the floor, hair in the bathroom, and a dirty window.  I had a lot of nervous energy and cleaned it all myself.I'd recommend the place but followup with management if the room isn't clean.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>For the first time I received an upgrade on my room, a perk for Diamond Level Members that up until now has never happened.  I was upgraded from a King to a King Suite which had an oversized tub, great shower head, pullout sofa bed, and 2 TVs.  A King bed and TV in 1 room with door, and sofa bed, TV, fridge, and microwave in the other.  It looked newly remolded with a wood floor.But now for the down side, why do guests put their feet/shoes on the wall?  There were many scuff marks on the wall, squished raisins on the floor, hair in the bathroom, and a dirty window.  I had a lot of nervous energy and cleaned it all myself.I'd recommend the place but followup with management if the room isn't clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r535956399-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>535956399</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Great stay at the Days Inn Orange Anaheim.</t>
+  </si>
+  <si>
+    <t>Thank you Days Inn, in Orange Anaheim. Your service experience was outstanding, and a great value within our budget. We hope Days Inn keeps up their great service, and hospitality with future guest. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Thank you Days Inn, in Orange Anaheim. Your service experience was outstanding, and a great value within our budget. We hope Days Inn keeps up their great service, and hospitality with future guest. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r533463525-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>533463525</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>unhappy</t>
+  </si>
+  <si>
+    <t>it wasn't very clean, there were ppl out in the parking lot and stairs all through the night smoking cigarettes noisy. We could smell cigarette smoke in our room we had a 8 month old in room with us. I could not sleep because of the noise. I did not feel safe. Def would not pay 120.00 to stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>it wasn't very clean, there were ppl out in the parking lot and stairs all through the night smoking cigarettes noisy. We could smell cigarette smoke in our room we had a 8 month old in room with us. I could not sleep because of the noise. I did not feel safe. Def would not pay 120.00 to stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r528828332-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>528828332</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Business travel gem, better inside than out.</t>
+  </si>
+  <si>
+    <t>Rooms are updated, clean and convenient, even if the outside is a mid-century relic. Free Parking (a premium in this neighborhood), secure location, well maintained elevator, and newly refurbished rooms. Very helpful and professional staff, and High Access internet, perfect for professionals, or those visiting the nearby hospitals. Walking distance to convenience stores, and fast food restaurants. Perfect for the traveller escaping SoCal traffic, and those in need for a clean safe space doing business in Orange.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Rooms are updated, clean and convenient, even if the outside is a mid-century relic. Free Parking (a premium in this neighborhood), secure location, well maintained elevator, and newly refurbished rooms. Very helpful and professional staff, and High Access internet, perfect for professionals, or those visiting the nearby hospitals. Walking distance to convenience stores, and fast food restaurants. Perfect for the traveller escaping SoCal traffic, and those in need for a clean safe space doing business in Orange.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r509729818-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>509729818</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>My stay was horrible, so bad in fact I showered and left. I am recently a homeless disabled veteran, I can not believe how I was treated. While checking in nothing was handed to me instead tossed in the counter rudly, the only reason I continued with my check in was because I had not had a real shower in 4 days. If it wasn't for that and that alone I would have saved my money and been on my way. The front desk clerk was apsalitly horriable, rude and no customer service what so ever. The few hours I was there other guest where loud, rude and seemed more permanent. The beds where nasty and that's coming from a guy who was dirty. I didn't get wifi access or anything. Also was put on the second floor and told there was no first floor openings yet I seen a vacant room, i am disabled by the way which I did tell the guy but he was to lazy to check for another room. I will never stay nor would I recommend  this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>My stay was horrible, so bad in fact I showered and left. I am recently a homeless disabled veteran, I can not believe how I was treated. While checking in nothing was handed to me instead tossed in the counter rudly, the only reason I continued with my check in was because I had not had a real shower in 4 days. If it wasn't for that and that alone I would have saved my money and been on my way. The front desk clerk was apsalitly horriable, rude and no customer service what so ever. The few hours I was there other guest where loud, rude and seemed more permanent. The beds where nasty and that's coming from a guy who was dirty. I didn't get wifi access or anything. Also was put on the second floor and told there was no first floor openings yet I seen a vacant room, i am disabled by the way which I did tell the guy but he was to lazy to check for another room. I will never stay nor would I recommend  this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r509080378-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>509080378</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>payment mishap and hidden fees</t>
+  </si>
+  <si>
+    <t>If you don't read further, know that they put a $400 hold on our account!I called ahead to make sure I would be able to use one card to book the room and pay with another one at check in, because my mom offered to pay for the room.They said I could, so I booked the room using my bankcard.When we checked in, my mom signed an invoice for the room on her card.A couple of days later, I noticed that my bankcard had been charged for the full stay plus a surprise $400 hold. My mom said her card was also charged. This put our bank account into the red for the rest of our trip.After an hour on the phone, the hotel reversed the charge (which of course would take several days) and agreed to take $20 of one of the nights. Still, that was less than the $36 the bank charged us in overdraft fees (negotiated from $72).Also, you can't put a price on being stressed out during your vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you don't read further, know that they put a $400 hold on our account!I called ahead to make sure I would be able to use one card to book the room and pay with another one at check in, because my mom offered to pay for the room.They said I could, so I booked the room using my bankcard.When we checked in, my mom signed an invoice for the room on her card.A couple of days later, I noticed that my bankcard had been charged for the full stay plus a surprise $400 hold. My mom said her card was also charged. This put our bank account into the red for the rest of our trip.After an hour on the phone, the hotel reversed the charge (which of course would take several days) and agreed to take $20 of one of the nights. Still, that was less than the $36 the bank charged us in overdraft fees (negotiated from $72).Also, you can't put a price on being stressed out during your vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r494021237-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>494021237</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Dirty. Undesirable characters hanging out at entrance. Floors dirty in room and the couch was grossly stained. Not worth $100. What you would expect for $39.99MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Dirty. Undesirable characters hanging out at entrance. Floors dirty in room and the couch was grossly stained. Not worth $100. What you would expect for $39.99More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r476574019-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>476574019</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Personal property stolen</t>
+  </si>
+  <si>
+    <t>I had some of my luggage stolen from my vehicle and when I had told the front​desk and asked if I could see the footage from their security cameras they told me that there was nothing they could do because where I parked was not in view of any of the cameras, why don't they then have security guards or why can't they put up another camera if they already know there is a blind spot, what if someone were to get mugged or raped what then, are they just going to say "sorry you were in a blind spot, there is nothing we can do."MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>DaysInnOrange, General Manager at Days Inn by Wyndham Orange Anaheim, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>I had some of my luggage stolen from my vehicle and when I had told the front​desk and asked if I could see the footage from their security cameras they told me that there was nothing they could do because where I parked was not in view of any of the cameras, why don't they then have security guards or why can't they put up another camera if they already know there is a blind spot, what if someone were to get mugged or raped what then, are they just going to say "sorry you were in a blind spot, there is nothing we can do."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r476140665-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>476140665</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Ok place</t>
+  </si>
+  <si>
+    <t>The only advantage is that it is very close to Disney. Rooms are ok, not the cleanest. The perimeter is very dirty.. that flows into rooms! People smoke just outside, so not very helpful even if you have a non smoking roomMoreShow less</t>
+  </si>
+  <si>
+    <t>The only advantage is that it is very close to Disney. Rooms are ok, not the cleanest. The perimeter is very dirty.. that flows into rooms! People smoke just outside, so not very helpful even if you have a non smoking roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r474129766-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>474129766</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Didn't sleep well</t>
+  </si>
+  <si>
+    <t>Lets start with the little couch that was stained all over. Then the wall behind the couch was dirty as well. The air conditioning unit looked like it was 30 years old. I just couldn't shake the feeling that everything in there was not clean. It made me feel uncertain about the bed and sheets as well. The continental breakfast was a joke. They actually had Cup of Noodles (chicken and shrimp) as part of their offerings. It was very minimal, low quality 'food'. The 'dining area' was just two tables set up in the entryway by the check in counter. I would not suggest this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnOrange, General Manager at Days Inn by Wyndham Orange Anaheim, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Lets start with the little couch that was stained all over. Then the wall behind the couch was dirty as well. The air conditioning unit looked like it was 30 years old. I just couldn't shake the feeling that everything in there was not clean. It made me feel uncertain about the bed and sheets as well. The continental breakfast was a joke. They actually had Cup of Noodles (chicken and shrimp) as part of their offerings. It was very minimal, low quality 'food'. The 'dining area' was just two tables set up in the entryway by the check in counter. I would not suggest this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r472703937-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>472703937</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>The hotel, is undergoing a refresh of the rooms. The lady that words at the front desk is very Sweet and friendly. Easy access to freeways from the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The hotel, is undergoing a refresh of the rooms. The lady that words at the front desk is very Sweet and friendly. Easy access to freeways from the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r471631939-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>471631939</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>The mattress was terrible you couldo feel all the wires. There was so much noise all night, the rooms were dirty</t>
+  </si>
+  <si>
+    <t>The mattress was terrible you couldo feel all the wires. There was so much noise all night, the rooms were dirtyMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The mattress was terrible you couldo feel all the wires. There was so much noise all night, the rooms were dirtyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r470885213-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>470885213</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Aweful</t>
+  </si>
+  <si>
+    <t>I would not recommend this motel. Pictures in internet are deceiving. Our bathroom was less than desireable.....hair all over the place, dirty walls that are screaming to be painted and the caulking was moldy....not to mention the water was cloudy white and lime/calcium deposit on sink fixture. Just aweful! MoreShow less</t>
+  </si>
+  <si>
+    <t>I would not recommend this motel. Pictures in internet are deceiving. Our bathroom was less than desireable.....hair all over the place, dirty walls that are screaming to be painted and the caulking was moldy....not to mention the water was cloudy white and lime/calcium deposit on sink fixture. Just aweful! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r461798830-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>461798830</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Our trip to Orange</t>
+  </si>
+  <si>
+    <t>The hotel was great!  It was very clean and recently up-graded.  The bathroom was wonderful, with a huge tub to soak in.   The room was spacious and very comfortable.  It has easy access from the street and is very well kept outside also.  Plenty of parking as well.  The service was excellent.  The staff  is very kind, polite and helpful.   We will definitely recommend this place.  It is very conveinent to the freeways as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The hotel was great!  It was very clean and recently up-graded.  The bathroom was wonderful, with a huge tub to soak in.   The room was spacious and very comfortable.  It has easy access from the street and is very well kept outside also.  Plenty of parking as well.  The service was excellent.  The staff  is very kind, polite and helpful.   We will definitely recommend this place.  It is very conveinent to the freeways as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r454303431-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>454303431</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>January 2017 Days Inn</t>
+  </si>
+  <si>
+    <t>Check in was very pleasant. Requested first floor room was available. Parking was very good and secure. Had to leave early so we missed breakfast. Only problem was a very weak internet connection.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Check in was very pleasant. Requested first floor room was available. Parking was very good and secure. Had to leave early so we missed breakfast. Only problem was a very weak internet connection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r453951584-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>453951584</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Smoking Room for a non-smoker.</t>
+  </si>
+  <si>
+    <t>Overall the room was clean, well stocked with coffee, towels and the sort of things needed for a comfortable overnight stay. My chief complaint is, I was given a smoking room when I'm not a smoker. I told them I didn't want a smoking room and they did not comply. The entire time I tried to rest during the night, Every inhale smelled of smoke. I don't smoke, and I have asthma (this was not a pleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall the room was clean, well stocked with coffee, towels and the sort of things needed for a comfortable overnight stay. My chief complaint is, I was given a smoking room when I'm not a smoker. I told them I didn't want a smoking room and they did not comply. The entire time I tried to rest during the night, Every inhale smelled of smoke. I don't smoke, and I have asthma (this was not a pleasant experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r420997898-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>420997898</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Older Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The personnel were great. Our room wasn't ready when we arrived. We had to wait about 20 minutes. It met our purposes but for the price of this room, we expected a little bit more! The small refigerator made noises 24 hrs a day! We could hear when guests made noises in their room.  </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r417463773-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>417463773</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>WASTED AGAIN IN TWEEKERVILLE</t>
+  </si>
+  <si>
+    <t>Well, I was i a pinch. needed a place to stay quick. So, I had a suite facing 7-11, on the 3rd. floor. It was allright, however; I did note individuals loitering in cars, talking, smoking cigarettes, both nights I was there. I witnessed a lovers spat, which I was waiting for the police to show up. I can tell when people do, or are "high" on meth. I think this whole motel was "spun out"  Now the room was fine, Big bathroom, separate sitting area. The futon was broken , I was beyond obvious, that somehow the center was compromised. When sitting, I sank all the way to the floor. Whatever, it was $133 with tax.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Well, I was i a pinch. needed a place to stay quick. So, I had a suite facing 7-11, on the 3rd. floor. It was allright, however; I did note individuals loitering in cars, talking, smoking cigarettes, both nights I was there. I witnessed a lovers spat, which I was waiting for the police to show up. I can tell when people do, or are "high" on meth. I think this whole motel was "spun out"  Now the room was fine, Big bathroom, separate sitting area. The futon was broken , I was beyond obvious, that somehow the center was compromised. When sitting, I sank all the way to the floor. Whatever, it was $133 with tax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r415105970-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>415105970</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Secluded romantic hideaway</t>
+  </si>
+  <si>
+    <t>Nice friendly staff, clean rooms, quite,  secluded, romantic. Could serve a better breakfast! But it was ok</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r396031826-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>396031826</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Nice enough spot close to Disneyland</t>
+  </si>
+  <si>
+    <t>My regular spots were booked so I selected this location based on price and distance from Disneyland.  I really liked the location.  Nice shopping center across the street with good food options.  The area seemed pleasant.  There is no pool area its a sitting area.  The internet was good, and the rooms were very nice.  No noise that i could tell.  You will need a car to get to Disneyland but since you take a short freeway hope the time is the same as some places that are a few blocks south.  I would stay here again as a back-up to my "usual" places.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>My regular spots were booked so I selected this location based on price and distance from Disneyland.  I really liked the location.  Nice shopping center across the street with good food options.  The area seemed pleasant.  There is no pool area its a sitting area.  The internet was good, and the rooms were very nice.  No noise that i could tell.  You will need a car to get to Disneyland but since you take a short freeway hope the time is the same as some places that are a few blocks south.  I would stay here again as a back-up to my "usual" places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r393402522-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>393402522</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Very dirty and out dated place.</t>
+  </si>
+  <si>
+    <t>One of the Televisions was not working and when I went down to talk to person in front desk, she did not beleive me until I got very firm with her.  The sheets were stain and looked dirty,in the bathroom the toilet was dirty and the wall in the bath tub had hair all over and hand printed on the walls with make up.  The floor was dirty and no airconditioning in both bedrooms, only in leaving room and very poor quality.  Very dissapointed with the hygene and out dated.MoreShow less</t>
+  </si>
+  <si>
+    <t>One of the Televisions was not working and when I went down to talk to person in front desk, she did not beleive me until I got very firm with her.  The sheets were stain and looked dirty,in the bathroom the toilet was dirty and the wall in the bath tub had hair all over and hand printed on the walls with make up.  The floor was dirty and no airconditioning in both bedrooms, only in leaving room and very poor quality.  Very dissapointed with the hygene and out dated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r390180278-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>390180278</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Ghetto</t>
+  </si>
+  <si>
+    <t>It was scary arriving late at night. There were two men smoking weed outside and two younger kids that were walking around the parking lot and kept looking at us as we checked in. It seemed like some of the people lived there as in their actual home. It didn't seem very safe.  The same Asian lady that checked us in at 2AM checked us out at 12PM which seemed kind of weird that she had worked a 12 hour shift. MoreShow less</t>
+  </si>
+  <si>
+    <t>It was scary arriving late at night. There were two men smoking weed outside and two younger kids that were walking around the parking lot and kept looking at us as we checked in. It seemed like some of the people lived there as in their actual home. It didn't seem very safe.  The same Asian lady that checked us in at 2AM checked us out at 12PM which seemed kind of weird that she had worked a 12 hour shift. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r369681647-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>369681647</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Getting in and out of parking lot is a hassle and the parking lot is small but it's clean inside the rooms, and that's my concern. No gluten free options for breakfast MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Getting in and out of parking lot is a hassle and the parking lot is small but it's clean inside the rooms, and that's my concern. No gluten free options for breakfast More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r368826198-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>368826198</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Melissa's stay at Days Inn</t>
+  </si>
+  <si>
+    <t>Thank you to the staff in the office! They were very accommodating and helpful. I got the room for my girlfriends daughter and the management was glad to help me out. She needed a place because her mother was stuck out of town. MoreShow less</t>
+  </si>
+  <si>
+    <t>Thank you to the staff in the office! They were very accommodating and helpful. I got the room for my girlfriends daughter and the management was glad to help me out. She needed a place because her mother was stuck out of town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r367848714-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>367848714</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The room was decent the price was ok but the area was terrible. There was a meth pipe outside of our window.... so that just tells you what type of people are nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was decent the price was ok but the area was terrible. There was a meth pipe outside of our window.... so that just tells you what type of people are nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r351892303-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>351892303</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Save yourself, keep looking.</t>
+  </si>
+  <si>
+    <t>I took my family to Disneyland for 8 nights. 7 of those nights I stayed at the Dolphins Cove Worldmark resort.  I had one night that we had to find alternate accommodations because of the availability of the rooms there. I searched online and there were a few nice hotels and then when I called Wyndham they suggested this one the Days Inn. We got to the Days Inn about midnight .  You have to buzz through the class to get into the small office.  The lady was OK not very friendly and said there was breakfast in the morning. We got to bed about 1 AM, the room was below average.  They did not have portable cribs for our toddler. We got up in the morning got ready to go get what probably would look like a bagel. We got into the office about 9:10 in the morning and she informed us that breakfast was over at nine and she'd already put everything away. There are a lot better hotels for the same price with the full made to order breakfast. Do yourself a favor and keep looking.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I took my family to Disneyland for 8 nights. 7 of those nights I stayed at the Dolphins Cove Worldmark resort.  I had one night that we had to find alternate accommodations because of the availability of the rooms there. I searched online and there were a few nice hotels and then when I called Wyndham they suggested this one the Days Inn. We got to the Days Inn about midnight .  You have to buzz through the class to get into the small office.  The lady was OK not very friendly and said there was breakfast in the morning. We got to bed about 1 AM, the room was below average.  They did not have portable cribs for our toddler. We got up in the morning got ready to go get what probably would look like a bagel. We got into the office about 9:10 in the morning and she informed us that breakfast was over at nine and she'd already put everything away. There are a lot better hotels for the same price with the full made to order breakfast. Do yourself a favor and keep looking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r351613170-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>351613170</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>DON'T WASTE YOUR MONEY</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE! There are full-service hotels just a few minutes drive away (closer to Disney, in fact they have free shuttles there) that have much nicer rooms, many amenities  - pools, fitness centers, restaurants, full breakfast buffet - and much better service, for only slightly higher rates.Plus, in our room and in our friends' room, we were subjected to the constant JACKHAMMER-LIKE noise of the hotel's ancient industrial washing machine all day long,  starting at 7AM on a Sunday! A freight train rolling through your room non-stop would be quieter. We went online and found a great deal at a full-service hotel for a much, much nicer room. Well worth just a few dollars more. We won't return to the Days Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE! There are full-service hotels just a few minutes drive away (closer to Disney, in fact they have free shuttles there) that have much nicer rooms, many amenities  - pools, fitness centers, restaurants, full breakfast buffet - and much better service, for only slightly higher rates.Plus, in our room and in our friends' room, we were subjected to the constant JACKHAMMER-LIKE noise of the hotel's ancient industrial washing machine all day long,  starting at 7AM on a Sunday! A freight train rolling through your room non-stop would be quieter. We went online and found a great deal at a full-service hotel for a much, much nicer room. Well worth just a few dollars more. We won't return to the Days Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r344658685-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>344658685</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Very basic but added accommodations, including refrig. microwave, passcode for wifi [didnt use]  Beds  were comfortable.Our room was clean.  Both front counter employees were wonderful.  Housekeeping was friendly. Hotel centrally located to everything.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r330897675-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>330897675</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Not Impressed</t>
+  </si>
+  <si>
+    <t>From the moment we checked in we were disappointed in this hotel. We had to wake up someone to check us in at 2 in the afternoon. The room was not very clean, and they didn't clean it 2 of the 3 days we stayed. The day they did clean it, they didn't leave any towels. The breakfast was all packaged food-- boxed drinks and packaged sweet rolls. Our daughter just moved to that neighborhood, but we will choose another hotel for our next visit-- even if it is more expensive.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r327697652-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>327697652</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>So rude</t>
+  </si>
+  <si>
+    <t>The attendee was incredibly rude, and when I asked to talk to a supervisor, she yelled at me "I'm the supervisor!" plain awful. She was ready to throw my credit card at me. Overall, the hotel was old and the room smelled funny. I had a much much better experience at the Days Inn outside of Disneyland. So dissappointing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r325588954-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>325588954</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bathroom was filthy  - there were phone numbers written on the inside of the bathroom door and dead bugs on the floor. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r320211519-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>320211519</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Lousey Customer Service</t>
+  </si>
+  <si>
+    <t>I booked a room, then used my points for a couple nites, but change my mind only use for one night, i called the Wydum to make the change they went and charge my card again now causing a overdraft on my bank account even the front desk person where i was staying at tried to explain to the CSR it wasnt nessiary for them charge me again since my card was already.now i have to wait 7 busness days before i can get my money bank into my account after all the screw ups and being a gold card member the Wydum should e-mailing me apologizing and giving me a free night.   MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I booked a room, then used my points for a couple nites, but change my mind only use for one night, i called the Wydum to make the change they went and charge my card again now causing a overdraft on my bank account even the front desk person where i was staying at tried to explain to the CSR it wasnt nessiary for them charge me again since my card was already.now i have to wait 7 busness days before i can get my money bank into my account after all the screw ups and being a gold card member the Wydum should e-mailing me apologizing and giving me a free night.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r316458741-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>316458741</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>As in all business you generally get what you pay for. The...</t>
+  </si>
+  <si>
+    <t>As in all business you generally get what you pay for. The grounds around motel need a lot of cleaning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r316454755-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>316454755</t>
+  </si>
+  <si>
+    <t>Nice Manager, Big Room, Great Location, Dirty Rug</t>
+  </si>
+  <si>
+    <t>The hotel was well located and the manager and his wife were extremely accommodating. The room was big, though a bit old. If the rug has been cleaner and the housekeeping more thorough, I would say this is a decent three-star (not two) hotel.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r298074558-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>298074558</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>The front desk lady was very friendly during check in. The...</t>
+  </si>
+  <si>
+    <t>The front desk lady was very friendly during check in. The room was clean, beds comfortable. The only complaint I have was the price of hotel, I think $144 a night was a little high .</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r293554869-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>293554869</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Disgusting hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is so dirty. Carpet was so dirty and if you walk you will have a black feet. Room are tiny and small not as expected and shown in the pictures. Two tables for breakfast area, with nothing to present for a continental breakfast. Breakfast area dirty and ants around the food area. Overall experience </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r291535380-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>291535380</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>nice quiet hotel close to Angels stadium</t>
+  </si>
+  <si>
+    <t>We enjoyed the location of this hotel, nice and quiet neighborhood within reasonable distance of all the places we planned on visiting.The only thing that would have made our stay better would be more options in the continental breakfast as well as faster internet...we are not from the area and got behind schedule searching for directions online because the service was so slow.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r273500173-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>273500173</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>The only problem we encountered was a lady knocking on our...</t>
+  </si>
+  <si>
+    <t>The only problem we encountered was a lady knocking on our door at 4am asking for some guy. She sounded highly intoxicated and we had to repeat over and over that she had the wrong room before she finally left. It was a bit unsettling. Also there was a wrecked vehicle parked in the lot that appeared to have been there awhile. In addition there was a van that although wasn't wrecked appeared to have been sitting there awhile so again a bit unsettling. We weren't sure if people were living in some of the rooms or what.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r270065760-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>270065760</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't even know where to start. The room  was dirty, no smoke detector, holes in the bathtub, screws sticking out of the light sockets and a microwave that had been either in a fire There were also powerstrips hanging down the appliances and we couldn't make outgoing phone calls. We felt unsafe and left as soon as possible. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r269987711-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>269987711</t>
+  </si>
+  <si>
+    <t>I needed to crash for one night and the Day's Inn was a...</t>
+  </si>
+  <si>
+    <t>I needed to crash for one night and the Day's Inn was a perfect solution. It was a great value for the rate I paid. If you're picky about everything you won't be happy here. The room was clean and had internet. I was happy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r255413623-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>255413623</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Unhappy</t>
+  </si>
+  <si>
+    <t>I would not stay at this location again paying the rate I'm paying I shouldn't have to provide house cleaning before my stay.  The restroom n sink had brown stains as well as the table stand n coffee tables n the room.  The radio was making static sounds throughout the night.  We had to unplug the radio(clock) to sleep. The phone was not working n cannot connect to any wifi.  Guest services was contacted n aware of this issue.  It was not a pleasant stay.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r252835835-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>252835835</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Recent stay</t>
+  </si>
+  <si>
+    <t>The room was very clean and staff was very pleasant. The room definitely needs some updates. Electrical outlets were not sufficient to hold plugs. Could not get TV to work. It may have been unplugged but could not get to the plug and the plug that was available was full of plugs from microwave and light. Had to move coffee pot into bathroom to work. Some lights had bulbs missing. Would probably not stay there again. Sorry</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r246627924-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>246627924</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>second worst</t>
+  </si>
+  <si>
+    <t>The room was dirty, TV's did not work. Maid brought new towels and no toilet paper. We had to use kleenex . Someone left their underwear in the room. Shower and tub dirty with bottle cap on the bath tub ledge. We won't stay there again.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r214353922-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>214353922</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Disappointed!! NOT A FAMILY ORIENTED PLACE!!</t>
+  </si>
+  <si>
+    <t>Our first night was ok. When we got there, they told us the carpet had been steamed cleaned so the carpet was wet. Throughout our stay our feet and socks got all black and gross, so we had to wear our shoes. Then the following day,  some guy was next door to us and he put the music full blast, was all high,  kept going in and out of the room. He was making all sorts of crazy noises, and with 2 children in my room, we were freaked out. The cops came a couple of times, but nothing was done. We didn't feel comfortable staying another day, so we checked out 1 day early, and got our money back. Not family friendly at all!!! Breakfast was a joke, boxed pastries and juice was it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Our first night was ok. When we got there, they told us the carpet had been steamed cleaned so the carpet was wet. Throughout our stay our feet and socks got all black and gross, so we had to wear our shoes. Then the following day,  some guy was next door to us and he put the music full blast, was all high,  kept going in and out of the room. He was making all sorts of crazy noises, and with 2 children in my room, we were freaked out. The cops came a couple of times, but nothing was done. We didn't feel comfortable staying another day, so we checked out 1 day early, and got our money back. Not family friendly at all!!! Breakfast was a joke, boxed pastries and juice was it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r208520585-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>208520585</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Graduation!</t>
+  </si>
+  <si>
+    <t>I thought the bed was comfortable. The room needed work - there is no counter space AT ALL in the bathroom. Hard to set up makeup, etc</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r206497512-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>206497512</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Close to the Block and Metrolink, No pool. Basic room with...</t>
+  </si>
+  <si>
+    <t>Close to the Block and Metrolink, No pool. Basic room with Micro and Fridge.Dont be late for breakfast, it's gone.Need basic stay, not very expensive, book it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r203339196-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>203339196</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>It was good for the cost. Just staying one night is a lot...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was good for the cost. Just staying one night is a lot different than staying several days. I didn't know there was a breakfast or I would have taken part of it. </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r198335480-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>198335480</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Small but Clean</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for a funeral close by. Not knowing the area, someplace inexpensive for one night's stay. I picked this motel because it was close to everything needed in an unfamiliar area. The price was right, good remodel on an older motel, small but very clean. Coffee and danish for breakfast? Don't bother, good resturants (especially Mexican) down the street.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r188445470-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>188445470</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>it was ok</t>
+  </si>
+  <si>
+    <t>Place was ok and good for a short trip. The beds were hard though so if you are used to a pillowtop bed then this is not the bed for you. If you want to sleep inside this is good for you but its a no-frills hotel.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r177574584-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>177574584</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>It's okay... when you're drunk</t>
+  </si>
+  <si>
+    <t>It looked decent on the outside. When we checked in the guy didn't even seem like he cared. When we asked for help with a taxi, it felt like we were treated like idiots. My room looked like it was cleaned but my sister's room still had blonde hair (our hair is black) on the bed. The microwaves and fridges looked like they were going to break down. The lights worked in my room, but not in my sister's. We only stayed one night and it was after a Dave &amp; Busters drunken night of fun so when we got back we didn't care that the room was gross or broken. Breakfast was okay: instant oatmeal, instant noodle cups, danishes or something like that... With juice and I think there was coffee too but I don't drink it so I didn't bother looking.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>It looked decent on the outside. When we checked in the guy didn't even seem like he cared. When we asked for help with a taxi, it felt like we were treated like idiots. My room looked like it was cleaned but my sister's room still had blonde hair (our hair is black) on the bed. The microwaves and fridges looked like they were going to break down. The lights worked in my room, but not in my sister's. We only stayed one night and it was after a Dave &amp; Busters drunken night of fun so when we got back we didn't care that the room was gross or broken. Breakfast was okay: instant oatmeal, instant noodle cups, danishes or something like that... With juice and I think there was coffee too but I don't drink it so I didn't bother looking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r177435751-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>177435751</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Women's Conference Stay</t>
+  </si>
+  <si>
+    <t>Normally, I am pleased with DaysInn. However this time I was disappointed. There was blood on the toilet paper; the hide-a-bed couch folded up on oneof our ladies in our group. The people were kind and courteous. They metour needs very quickly. We had a suite--the bedroom did not have the cooler. We had to keep the first room very cold to keep the bedroom, evenmildly cool.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r176634598-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>176634598</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Had worse</t>
+  </si>
+  <si>
+    <t>I don't get why all the bad reviews on this place.  I have stayed in two star hotels that are way worse than this one.  The room was well kept, not small at all. Comes with a fridge and microwave. The TV is a up to date flat screen.  Housekeeping did a better job than a lot of 4 star hotel housekeeping does that I have witnessed.    I had some trouble with the internet but the staff was very nice and helpful on getting it working right.  The place could use some work I do agree with that especially the outdoor seating area and the vending machine being more stocked up.MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't get why all the bad reviews on this place.  I have stayed in two star hotels that are way worse than this one.  The room was well kept, not small at all. Comes with a fridge and microwave. The TV is a up to date flat screen.  Housekeeping did a better job than a lot of 4 star hotel housekeeping does that I have witnessed.    I had some trouble with the internet but the staff was very nice and helpful on getting it working right.  The place could use some work I do agree with that especially the outdoor seating area and the vending machine being more stocked up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r171803580-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>171803580</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>The most horrible bed I have ever tried to sleep on.</t>
+  </si>
+  <si>
+    <t>Do not stay at Days Inn. Although our room was somewhat clean, the beds were of such poor quality and so hard that it was impossible to sleep. The breakfast was a joke with stale sweet rolls, dried out cereal and unrefrigerated milk. it was set up on a very small table that did not look clean. When I checked in and out the clerks were not friendly, slow and disinterested. When I climbed the stairs to the second floor, I found at the top that I had to climb over the vacuum cleaner that the cleaning person had abandoned along with the cleaning cart, it could have been a very dangerous situation for someone who was not sure-footed. I will never stay at a Days Inn again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Do not stay at Days Inn. Although our room was somewhat clean, the beds were of such poor quality and so hard that it was impossible to sleep. The breakfast was a joke with stale sweet rolls, dried out cereal and unrefrigerated milk. it was set up on a very small table that did not look clean. When I checked in and out the clerks were not friendly, slow and disinterested. When I climbed the stairs to the second floor, I found at the top that I had to climb over the vacuum cleaner that the cleaning person had abandoned along with the cleaning cart, it could have been a very dangerous situation for someone who was not sure-footed. I will never stay at a Days Inn again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r171221732-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>171221732</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Stunk like dead rat in the old outdated restroom. The...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunk like dead rat in the old outdated restroom. The bedroom smelled awful as well. Covers were drabby. Only his thing was the pillows.Made reservations for nonsmoking, I get there , they didn't have any rooms left, ccouldnt find my reservation. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r170374132-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>170374132</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Eh</t>
+  </si>
+  <si>
+    <t>Barely passable hotel with clean enough rooms, I guess. Breakfast was as simple and cheap as you could get (generic instant oatmeal, cup noodles, toast a cold cereal were offered). Owner or manager standing outside office smoking (yuk), drippy faucet, weird clock that made noises for no reason, construction nearby that starts at 7 am. Bulb out in one of the fixtures. Pillows were awful and i am so glad i brought my own. If I were paying $59 a night I would expect this, but at $100 a night I would expect better. Woman at the front desk was friendly enough and tried to address my concerns. Housekeeping did come in and bring fresh towels, made beds, etc. every day. Parking was free and convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Barely passable hotel with clean enough rooms, I guess. Breakfast was as simple and cheap as you could get (generic instant oatmeal, cup noodles, toast a cold cereal were offered). Owner or manager standing outside office smoking (yuk), drippy faucet, weird clock that made noises for no reason, construction nearby that starts at 7 am. Bulb out in one of the fixtures. Pillows were awful and i am so glad i brought my own. If I were paying $59 a night I would expect this, but at $100 a night I would expect better. Woman at the front desk was friendly enough and tried to address my concerns. Housekeeping did come in and bring fresh towels, made beds, etc. every day. Parking was free and convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r164971070-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>164971070</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>DAYS INN ORANGE CA</t>
+  </si>
+  <si>
+    <t>If you like dirty rusty showers, electrical outlets don't work, hair dryers that are bolted to the walls and don't work....There is NO pride by the owner of this hotel. Management and owners are CHEAP CHEAP CHEAP...outdated, dirty, noisy, no pool, hospital down the street, ambulances sirens all day and night.....need I say more?MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>DaysInnOrange, Manager at Days Inn by Wyndham Orange Anaheim, responded to this reviewResponded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2013</t>
+  </si>
+  <si>
+    <t>If you like dirty rusty showers, electrical outlets don't work, hair dryers that are bolted to the walls and don't work....There is NO pride by the owner of this hotel. Management and owners are CHEAP CHEAP CHEAP...outdated, dirty, noisy, no pool, hospital down the street, ambulances sirens all day and night.....need I say more?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r163832930-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>163832930</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>don't stay</t>
+  </si>
+  <si>
+    <t>I was very upsset at the service. I usually enjoy days inn, but really want a refund, they served raman noodles as the continental breakfast. Staff was unhelpful and room was dirty, disorganized, A/C did not work. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very upsset at the service. I usually enjoy days inn, but really want a refund, they served raman noodles as the continental breakfast. Staff was unhelpful and room was dirty, disorganized, A/C did not work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r162384935-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>162384935</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>I have stayed in pretty bad hotels.... but this topped it. I actually left after an 1.5 hr in the room. I asked for a refund and none was given. The couch had residue on it. Electrical was bad.. it shocked me. Had to fight with the wifi, tv, mini fridge. I will NEVER stay at another Days Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in pretty bad hotels.... but this topped it. I actually left after an 1.5 hr in the room. I asked for a refund and none was given. The couch had residue on it. Electrical was bad.. it shocked me. Had to fight with the wifi, tv, mini fridge. I will NEVER stay at another Days Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r154888387-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>154888387</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Switched from smoking to non-smoking which required an "upgrade" charge of $10 because of different room type. Seems a bit much. Was asked to pay the $10 in cash instead of adding to my credit card.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r152309347-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>152309347</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Terrible Days Inn experience</t>
+  </si>
+  <si>
+    <t>We found a cheap room during Valentine's day weekend so we knew it wasn't going to be great but this was awful. First off the front desk woman Eva was absolutely horrible. She actually yelled at us for asking if they had a non smoking since we accidentally booked smoking. Then shooed us out of the lobby for apparently taking too long. Room needed renovation along with the whole hotel. Continental breakfast was bread and juice. Never recommend this place to anyone and very disappointed with Days Inn franchise for allowing such poor hotel service and rotten building.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r148083246-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>148083246</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Wel it can be more afordtibal the red roof in it got better...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wel it can be more afordtibal the red roof in it got better beds sorry but is true the parking lot was stand maybe they nned to power wash them one a week or every orter week get bertter blankets BEDS softer ones hot bearkfast for the peris not just cerial bagols come on realy   </t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r144185996-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>144185996</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>The cooler did not work well. Kept blowing warm air so room was stuffy. On the last night  the fuse for the bathroom lights and outlet blew out. That happened around 2 am.  The little coffee pot that was in the room would not brew. Some other guest threw up in front of the room made it unpleasant to walk out when we were leaving. I am very dissatisfied with our visit and will not stay there again</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r143219039-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>143219039</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>This hotel didn't provide free wifi, and my room didn't have blinds- only curtains that didn't entirely close. Being on the bottom floor and traveling alone, I felt a little sketched out by that. The beds weren't very comfortable, but they weren't terrible. Also, there were no actual lights- just lamps! Everything was kept extremely clean, though, and I feel that the lack of luxury can just be attributed to the low price. It gave me a place to sleep, which was all I needed.. But the wifi and blinds on the windows are pretty essential, I think!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r143207197-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>143207197</t>
+  </si>
+  <si>
+    <t>Disappointing Experience</t>
+  </si>
+  <si>
+    <t>The location of days Inn is why we stayed as our daughter was to have surgery the next day at St. Joseph hospital. The Room was in bad shape or general disrepair. The cable/electrical covers loose and missing. The wall light did not work but I found that was due to being unplugged. The air conditioning did not cool the air so it was miserable all night. I tried to open the windows but they had no screens and no internal window lock the hotel had put screw security locks on so the windows opened half way and would not lock when shut. So if someone tried to break in they could just open the window and come in. The noise level gets loud with the traffic pattern. The staff was great but the room was a bummer, not worth the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location of days Inn is why we stayed as our daughter was to have surgery the next day at St. Joseph hospital. The Room was in bad shape or general disrepair. The cable/electrical covers loose and missing. The wall light did not work but I found that was due to being unplugged. The air conditioning did not cool the air so it was miserable all night. I tried to open the windows but they had no screens and no internal window lock the hotel had put screw security locks on so the windows opened half way and would not lock when shut. So if someone tried to break in they could just open the window and come in. The noise level gets loud with the traffic pattern. The staff was great but the room was a bummer, not worth the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r134754480-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>134754480</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>JUST DON'T BOOK!!!!</t>
+  </si>
+  <si>
+    <t>I booked a hotel stay with Anaheim Days Inn Orange because we were going to need a suite.  WE NEVER ACTUALLY STAYED! We were staying at the Clarion the first night of our stay and wanted to check out the location of the Days Inn before we checked in. The hotel itself is in a seedy area with an empty dirty field behind it.  It is very outdated. There were indivuals coming out of the hotel who worried me.  I immediately called Days Inn to cancel our reservation.  After being on hold for an hour and a half I was finally helped.  I can say that after the hour and a half wait our reservations were canceled without charge, but don't be fooled by other Days Inn and Suites in the area. This one is nothing like the others.  For what I was being charged you can get a much better hotel deal at another location.  If you choose a Days Inn avoid this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I booked a hotel stay with Anaheim Days Inn Orange because we were going to need a suite.  WE NEVER ACTUALLY STAYED! We were staying at the Clarion the first night of our stay and wanted to check out the location of the Days Inn before we checked in. The hotel itself is in a seedy area with an empty dirty field behind it.  It is very outdated. There were indivuals coming out of the hotel who worried me.  I immediately called Days Inn to cancel our reservation.  After being on hold for an hour and a half I was finally helped.  I can say that after the hour and a half wait our reservations were canceled without charge, but don't be fooled by other Days Inn and Suites in the area. This one is nothing like the others.  For what I was being charged you can get a much better hotel deal at another location.  If you choose a Days Inn avoid this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r133896947-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>133896947</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Large comfortable room with fridge and micro, flat screen w/ 100 channels.</t>
+  </si>
+  <si>
+    <t>Big room, bed, tv at this small property.  Great location with easy freeway access for all points SoCal.  The room was pretty clean and the accomodations were nice, with a leather couch and huge bed, small work desk.  Really liked full channel line-up including Food, Golf, E, Comedy, etc.  Great bed, very comfortable.  Nice people on staff.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r126667336-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>126667336</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>Average stay. Free breakfast was very limited but we didn't eat it anyway. Quiet hotel within walking distance to local stores. Some of the lights didn't work very well but mostly everything worked fine.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r88678537-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>88678537</t>
+  </si>
+  <si>
+    <t>11/30/2010</t>
+  </si>
+  <si>
+    <t>I'll avoid it next time</t>
+  </si>
+  <si>
+    <t>Well, we stayed 2 nights and found the beds very comfortable. That's where the good stuff ends. We found the toilet to be loose on the floor and consequently the seal is compromised and it leaks out onto the floor. As with many motels, no one checks the drains in the sinks. This was also a problem. The sink needed a shot of good Drano. We also brought back some doggy bags from a restaurant to have later. We placed the food in the microwave oven to find that it did not work. It lit up, rotated the carousel but did not heat. Cold spaghetti is not my favorite. When morning came we found the "complimentary continental breakfast" to be non-existant. The office was locked as late as 7:15. This property shows signs of needing TLC to be a nice Days Inn. All in all, we should have stayed somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>Well, we stayed 2 nights and found the beds very comfortable. That's where the good stuff ends. We found the toilet to be loose on the floor and consequently the seal is compromised and it leaks out onto the floor. As with many motels, no one checks the drains in the sinks. This was also a problem. The sink needed a shot of good Drano. We also brought back some doggy bags from a restaurant to have later. We placed the food in the microwave oven to find that it did not work. It lit up, rotated the carousel but did not heat. Cold spaghetti is not my favorite. When morning came we found the "complimentary continental breakfast" to be non-existant. The office was locked as late as 7:15. This property shows signs of needing TLC to be a nice Days Inn. All in all, we should have stayed somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r63267749-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
+  </si>
+  <si>
+    <t>63267749</t>
+  </si>
+  <si>
+    <t>05/04/2010</t>
+  </si>
+  <si>
+    <t>Good stay, quiet area</t>
+  </si>
+  <si>
+    <t>Although the front of the hotel is not that inviting, I was pleasantly surprised of the interior of the room for the price we paid.  Only thing I disliked was that the windows did not shut/lock.  As we were on the second floor, I think it would have been hard for anyone to climb up.  Although the Days Inn website indicated that breakfast was included, it was hard to wake up the manager at 7:30 am in the morning to ask for breakfast.  All that was offered was coffee and packaged cinnamon rolls.  If we knew that we wouldn't have waited until then.  Also the ice machine did not work (and the feeling I got from the manager is that it didn't work for a long time and he didn't plan to get it fixed).MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Although the front of the hotel is not that inviting, I was pleasantly surprised of the interior of the room for the price we paid.  Only thing I disliked was that the windows did not shut/lock.  As we were on the second floor, I think it would have been hard for anyone to climb up.  Although the Days Inn website indicated that breakfast was included, it was hard to wake up the manager at 7:30 am in the morning to ask for breakfast.  All that was offered was coffee and packaged cinnamon rolls.  If we knew that we wouldn't have waited until then.  Also the ice machine did not work (and the feeling I got from the manager is that it didn't work for a long time and he didn't plan to get it fixed).More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2001,4787 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>132</v>
+      </c>
+      <c r="X17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>168</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>132</v>
+      </c>
+      <c r="X18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>132</v>
+      </c>
+      <c r="X19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>200</v>
+      </c>
+      <c r="X26" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>200</v>
+      </c>
+      <c r="X27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>200</v>
+      </c>
+      <c r="X28" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" t="s">
+        <v>168</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>168</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s">
+        <v>283</v>
+      </c>
+      <c r="L37" t="s">
+        <v>284</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>285</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>286</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" t="s">
+        <v>288</v>
+      </c>
+      <c r="K38" t="s">
+        <v>289</v>
+      </c>
+      <c r="L38" t="s">
+        <v>290</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>291</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" t="s">
+        <v>294</v>
+      </c>
+      <c r="K39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" t="s">
+        <v>168</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>308</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>314</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" t="s">
+        <v>318</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>314</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" t="s">
+        <v>327</v>
+      </c>
+      <c r="K45" t="s">
+        <v>328</v>
+      </c>
+      <c r="L45" t="s">
+        <v>329</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>331</v>
+      </c>
+      <c r="J46" t="s">
+        <v>332</v>
+      </c>
+      <c r="K46" t="s">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s">
+        <v>334</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>335</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>337</v>
+      </c>
+      <c r="J47" t="s">
+        <v>338</v>
+      </c>
+      <c r="K47" t="s">
+        <v>339</v>
+      </c>
+      <c r="L47" t="s">
+        <v>340</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" t="s">
+        <v>345</v>
+      </c>
+      <c r="L48" t="s">
+        <v>346</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>347</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s">
+        <v>352</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>347</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>354</v>
+      </c>
+      <c r="J50" t="s">
+        <v>355</v>
+      </c>
+      <c r="K50" t="s">
+        <v>356</v>
+      </c>
+      <c r="L50" t="s">
+        <v>357</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>358</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>364</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>365</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>366</v>
+      </c>
+      <c r="J52" t="s">
+        <v>367</v>
+      </c>
+      <c r="K52" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52" t="s">
+        <v>369</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>370</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>371</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>372</v>
+      </c>
+      <c r="J53" t="s">
+        <v>373</v>
+      </c>
+      <c r="K53" t="s">
+        <v>374</v>
+      </c>
+      <c r="L53" t="s">
+        <v>375</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>376</v>
+      </c>
+      <c r="O53" t="s">
+        <v>140</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>378</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>379</v>
+      </c>
+      <c r="J54" t="s">
+        <v>380</v>
+      </c>
+      <c r="K54" t="s">
+        <v>381</v>
+      </c>
+      <c r="L54" t="s">
+        <v>382</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>383</v>
+      </c>
+      <c r="O54" t="s">
+        <v>140</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>384</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>385</v>
+      </c>
+      <c r="J55" t="s">
+        <v>386</v>
+      </c>
+      <c r="K55" t="s">
+        <v>387</v>
+      </c>
+      <c r="L55" t="s">
+        <v>388</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" t="s">
+        <v>168</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" t="s">
+        <v>392</v>
+      </c>
+      <c r="K56" t="s">
+        <v>393</v>
+      </c>
+      <c r="L56" t="s">
+        <v>394</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>376</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>397</v>
+      </c>
+      <c r="J57" t="s">
+        <v>398</v>
+      </c>
+      <c r="K57" t="s">
+        <v>399</v>
+      </c>
+      <c r="L57" t="s">
+        <v>400</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>376</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>401</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>402</v>
+      </c>
+      <c r="J58" t="s">
+        <v>403</v>
+      </c>
+      <c r="K58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>406</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>408</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>409</v>
+      </c>
+      <c r="J59" t="s">
+        <v>410</v>
+      </c>
+      <c r="K59" t="s">
+        <v>411</v>
+      </c>
+      <c r="L59" t="s">
+        <v>412</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>413</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>414</v>
+      </c>
+      <c r="X59" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>417</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>418</v>
+      </c>
+      <c r="J60" t="s">
+        <v>419</v>
+      </c>
+      <c r="K60" t="s">
+        <v>420</v>
+      </c>
+      <c r="L60" t="s">
+        <v>421</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>413</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>414</v>
+      </c>
+      <c r="X60" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>423</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>424</v>
+      </c>
+      <c r="J61" t="s">
+        <v>425</v>
+      </c>
+      <c r="K61" t="s">
+        <v>426</v>
+      </c>
+      <c r="L61" t="s">
+        <v>427</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>414</v>
+      </c>
+      <c r="X61" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>429</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>430</v>
+      </c>
+      <c r="J62" t="s">
+        <v>431</v>
+      </c>
+      <c r="K62" t="s">
+        <v>432</v>
+      </c>
+      <c r="L62" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>434</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>435</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>436</v>
+      </c>
+      <c r="J63" t="s">
+        <v>437</v>
+      </c>
+      <c r="K63" t="s">
+        <v>438</v>
+      </c>
+      <c r="L63" t="s">
+        <v>439</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>441</v>
+      </c>
+      <c r="J64" t="s">
+        <v>442</v>
+      </c>
+      <c r="K64" t="s">
+        <v>443</v>
+      </c>
+      <c r="L64" t="s">
+        <v>444</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>445</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>447</v>
+      </c>
+      <c r="J65" t="s">
+        <v>448</v>
+      </c>
+      <c r="K65" t="s">
+        <v>449</v>
+      </c>
+      <c r="L65" t="s">
+        <v>450</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>451</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>452</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>453</v>
+      </c>
+      <c r="J66" t="s">
+        <v>454</v>
+      </c>
+      <c r="K66" t="s">
+        <v>455</v>
+      </c>
+      <c r="L66" t="s">
+        <v>456</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>451</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>457</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>458</v>
+      </c>
+      <c r="J67" t="s">
+        <v>454</v>
+      </c>
+      <c r="K67" t="s">
+        <v>459</v>
+      </c>
+      <c r="L67" t="s">
+        <v>460</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>451</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>462</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>463</v>
+      </c>
+      <c r="J68" t="s">
+        <v>464</v>
+      </c>
+      <c r="K68" t="s">
+        <v>465</v>
+      </c>
+      <c r="L68" t="s">
+        <v>466</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>467</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>469</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>470</v>
+      </c>
+      <c r="J69" t="s">
+        <v>471</v>
+      </c>
+      <c r="K69" t="s">
+        <v>472</v>
+      </c>
+      <c r="L69" t="s">
+        <v>473</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>474</v>
+      </c>
+      <c r="O69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>475</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>476</v>
+      </c>
+      <c r="J70" t="s">
+        <v>477</v>
+      </c>
+      <c r="K70" t="s">
+        <v>478</v>
+      </c>
+      <c r="L70" t="s">
+        <v>479</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>480</v>
+      </c>
+      <c r="O70" t="s">
+        <v>168</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>481</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>482</v>
+      </c>
+      <c r="J71" t="s">
+        <v>483</v>
+      </c>
+      <c r="K71" t="s">
+        <v>484</v>
+      </c>
+      <c r="L71" t="s">
+        <v>485</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>486</v>
+      </c>
+      <c r="O71" t="s">
+        <v>168</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10752</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>488</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>489</v>
+      </c>
+      <c r="J72" t="s">
+        <v>490</v>
+      </c>
+      <c r="K72" t="s">
+        <v>491</v>
+      </c>
+      <c r="L72" t="s">
+        <v>492</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>493</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>494</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_185.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_185.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Emanuel M</t>
+  </si>
+  <si>
     <t>06/30/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We stayed here for two nights on Fri and Sat. Really liked the room. Good rate for a weekend stay. We went to Universal Studios and Disneyland.More</t>
   </si>
   <si>
+    <t>markpR3083SK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r556373583-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Overall the room was satisfactory. The room seemed clean. I was surprised they had no local phone service, also, the phone cord broke, and I was unable to call the desk. They were accommodating with room placement request. The desk clerk was difficult to understand. He spoke too fast when answering the phone, so I had to have repeat everything he said.More</t>
   </si>
   <si>
+    <t>sandieck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r555594144-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>For the first time I received an upgrade on my room, a perk for Diamond Level Members that up until now has never happened.  I was upgraded from a King to a King Suite which had an oversized tub, great shower head, pullout sofa bed, and 2 TVs.  A King bed and TV in 1 room with door, and sofa bed, TV, fridge, and microwave in the other.  It looked newly remolded with a wood floor.But now for the down side, why do guests put their feet/shoes on the wall?  There were many scuff marks on the wall, squished raisins on the floor, hair in the bathroom, and a dirty window.  I had a lot of nervous energy and cleaned it all myself.I'd recommend the place but followup with management if the room isn't clean.More</t>
   </si>
   <si>
+    <t>orlando236</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r535956399-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>Thank you Days Inn, in Orange Anaheim. Your service experience was outstanding, and a great value within our budget. We hope Days Inn keeps up their great service, and hospitality with future guest. Thank you.More</t>
   </si>
   <si>
+    <t>hulachik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r533463525-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>it wasn't very clean, there were ppl out in the parking lot and stairs all through the night smoking cigarettes noisy. We could smell cigarette smoke in our room we had a 8 month old in room with us. I could not sleep because of the noise. I did not feel safe. Def would not pay 120.00 to stay there again. More</t>
   </si>
   <si>
+    <t>IxRate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r528828332-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Rooms are updated, clean and convenient, even if the outside is a mid-century relic. Free Parking (a premium in this neighborhood), secure location, well maintained elevator, and newly refurbished rooms. Very helpful and professional staff, and High Access internet, perfect for professionals, or those visiting the nearby hospitals. Walking distance to convenience stores, and fast food restaurants. Perfect for the traveller escaping SoCal traffic, and those in need for a clean safe space doing business in Orange.More</t>
   </si>
   <si>
+    <t>anthonybY7312EN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r509729818-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>My stay was horrible, so bad in fact I showered and left. I am recently a homeless disabled veteran, I can not believe how I was treated. While checking in nothing was handed to me instead tossed in the counter rudly, the only reason I continued with my check in was because I had not had a real shower in 4 days. If it wasn't for that and that alone I would have saved my money and been on my way. The front desk clerk was apsalitly horriable, rude and no customer service what so ever. The few hours I was there other guest where loud, rude and seemed more permanent. The beds where nasty and that's coming from a guy who was dirty. I didn't get wifi access or anything. Also was put on the second floor and told there was no first floor openings yet I seen a vacant room, i am disabled by the way which I did tell the guy but he was to lazy to check for another room. I will never stay nor would I recommend  this place to anyone.More</t>
   </si>
   <si>
+    <t>JasonDenver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r509080378-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>If you don't read further, know that they put a $400 hold on our account!I called ahead to make sure I would be able to use one card to book the room and pay with another one at check in, because my mom offered to pay for the room.They said I could, so I booked the room using my bankcard.When we checked in, my mom signed an invoice for the room on her card.A couple of days later, I noticed that my bankcard had been charged for the full stay plus a surprise $400 hold. My mom said her card was also charged. This put our bank account into the red for the rest of our trip.After an hour on the phone, the hotel reversed the charge (which of course would take several days) and agreed to take $20 of one of the nights. Still, that was less than the $36 the bank charged us in overdraft fees (negotiated from $72).Also, you can't put a price on being stressed out during your vacation.More</t>
   </si>
   <si>
+    <t>248gaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r494021237-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>Dirty. Undesirable characters hanging out at entrance. Floors dirty in room and the couch was grossly stained. Not worth $100. What you would expect for $39.99More</t>
   </si>
   <si>
+    <t>B2357ULkeving</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r476574019-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>I had some of my luggage stolen from my vehicle and when I had told the front​desk and asked if I could see the footage from their security cameras they told me that there was nothing they could do because where I parked was not in view of any of the cameras, why don't they then have security guards or why can't they put up another camera if they already know there is a blind spot, what if someone were to get mugged or raped what then, are they just going to say "sorry you were in a blind spot, there is nothing we can do."More</t>
   </si>
   <si>
+    <t>Kailas S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r476140665-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>The only advantage is that it is very close to Disney. Rooms are ok, not the cleanest. The perimeter is very dirty.. that flows into rooms! People smoke just outside, so not very helpful even if you have a non smoking roomMore</t>
   </si>
   <si>
+    <t>390claudinem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r474129766-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>Lets start with the little couch that was stained all over. Then the wall behind the couch was dirty as well. The air conditioning unit looked like it was 30 years old. I just couldn't shake the feeling that everything in there was not clean. It made me feel uncertain about the bed and sheets as well. The continental breakfast was a joke. They actually had Cup of Noodles (chicken and shrimp) as part of their offerings. It was very minimal, low quality 'food'. The 'dining area' was just two tables set up in the entryway by the check in counter. I would not suggest this place to anyone.More</t>
   </si>
   <si>
+    <t>Sd92104guy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r472703937-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>The hotel, is undergoing a refresh of the rooms. The lady that words at the front desk is very Sweet and friendly. Easy access to freeways from the hotel. More</t>
   </si>
   <si>
+    <t>Emerson N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r471631939-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -465,6 +507,9 @@
     <t>The mattress was terrible you couldo feel all the wires. There was so much noise all night, the rooms were dirtyMore</t>
   </si>
   <si>
+    <t>Topazocean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r470885213-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -483,6 +528,9 @@
     <t>I would not recommend this motel. Pictures in internet are deceiving. Our bathroom was less than desireable.....hair all over the place, dirty walls that are screaming to be painted and the caulking was moldy....not to mention the water was cloudy white and lime/calcium deposit on sink fixture. Just aweful! More</t>
   </si>
   <si>
+    <t>Tari O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r461798830-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t>The hotel was great!  It was very clean and recently up-graded.  The bathroom was wonderful, with a huge tub to soak in.   The room was spacious and very comfortable.  It has easy access from the street and is very well kept outside also.  Plenty of parking as well.  The service was excellent.  The staff  is very kind, polite and helpful.   We will definitely recommend this place.  It is very conveinent to the freeways as well.More</t>
   </si>
   <si>
+    <t>leek711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r454303431-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -528,6 +579,9 @@
     <t>Check in was very pleasant. Requested first floor room was available. Parking was very good and secure. Had to leave early so we missed breakfast. Only problem was a very weak internet connection.More</t>
   </si>
   <si>
+    <t>snowprincess2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r453951584-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -546,6 +600,9 @@
     <t>Overall the room was clean, well stocked with coffee, towels and the sort of things needed for a comfortable overnight stay. My chief complaint is, I was given a smoking room when I'm not a smoker. I told them I didn't want a smoking room and they did not comply. The entire time I tried to rest during the night, Every inhale smelled of smoke. I don't smoke, and I have asthma (this was not a pleasant experience.More</t>
   </si>
   <si>
+    <t>Marie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r420997898-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -564,6 +621,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Aerovergalineas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r417463773-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -585,6 +645,9 @@
     <t>Well, I was i a pinch. needed a place to stay quick. So, I had a suite facing 7-11, on the 3rd. floor. It was allright, however; I did note individuals loitering in cars, talking, smoking cigarettes, both nights I was there. I witnessed a lovers spat, which I was waiting for the police to show up. I can tell when people do, or are "high" on meth. I think this whole motel was "spun out"  Now the room was fine, Big bathroom, separate sitting area. The futon was broken , I was beyond obvious, that somehow the center was compromised. When sitting, I sank all the way to the floor. Whatever, it was $133 with tax.More</t>
   </si>
   <si>
+    <t>733lilyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r415105970-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -603,6 +666,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r396031826-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -627,6 +693,9 @@
     <t>My regular spots were booked so I selected this location based on price and distance from Disneyland.  I really liked the location.  Nice shopping center across the street with good food options.  The area seemed pleasant.  There is no pool area its a sitting area.  The internet was good, and the rooms were very nice.  No noise that i could tell.  You will need a car to get to Disneyland but since you take a short freeway hope the time is the same as some places that are a few blocks south.  I would stay here again as a back-up to my "usual" places.More</t>
   </si>
   <si>
+    <t>303marthaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r393402522-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -645,6 +714,9 @@
     <t>One of the Televisions was not working and when I went down to talk to person in front desk, she did not beleive me until I got very firm with her.  The sheets were stain and looked dirty,in the bathroom the toilet was dirty and the wall in the bath tub had hair all over and hand printed on the walls with make up.  The floor was dirty and no airconditioning in both bedrooms, only in leaving room and very poor quality.  Very dissapointed with the hygene and out dated.More</t>
   </si>
   <si>
+    <t>Nenikakes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r390180278-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -663,6 +735,9 @@
     <t>It was scary arriving late at night. There were two men smoking weed outside and two younger kids that were walking around the parking lot and kept looking at us as we checked in. It seemed like some of the people lived there as in their actual home. It didn't seem very safe.  The same Asian lady that checked us in at 2AM checked us out at 12PM which seemed kind of weird that she had worked a 12 hour shift. More</t>
   </si>
   <si>
+    <t>Ashley B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r369681647-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -684,6 +759,9 @@
     <t>Getting in and out of parking lot is a hassle and the parking lot is small but it's clean inside the rooms, and that's my concern. No gluten free options for breakfast More</t>
   </si>
   <si>
+    <t>dannylawson44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r368826198-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -702,6 +780,9 @@
     <t>Thank you to the staff in the office! They were very accommodating and helpful. I got the room for my girlfriends daughter and the management was glad to help me out. She needed a place because her mother was stuck out of town. More</t>
   </si>
   <si>
+    <t>albertoh148</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r367848714-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -720,6 +801,9 @@
     <t>The room was decent the price was ok but the area was terrible. There was a meth pipe outside of our window.... so that just tells you what type of people are nearby.More</t>
   </si>
   <si>
+    <t>ryan1978</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r351892303-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -741,6 +825,9 @@
     <t>I took my family to Disneyland for 8 nights. 7 of those nights I stayed at the Dolphins Cove Worldmark resort.  I had one night that we had to find alternate accommodations because of the availability of the rooms there. I searched online and there were a few nice hotels and then when I called Wyndham they suggested this one the Days Inn. We got to the Days Inn about midnight .  You have to buzz through the class to get into the small office.  The lady was OK not very friendly and said there was breakfast in the morning. We got to bed about 1 AM, the room was below average.  They did not have portable cribs for our toddler. We got up in the morning got ready to go get what probably would look like a bagel. We got into the office about 9:10 in the morning and she informed us that breakfast was over at nine and she'd already put everything away. There are a lot better hotels for the same price with the full made to order breakfast. Do yourself a favor and keep looking.More</t>
   </si>
   <si>
+    <t>Lisa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r351613170-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -759,6 +846,9 @@
     <t>DO NOT STAY HERE! There are full-service hotels just a few minutes drive away (closer to Disney, in fact they have free shuttles there) that have much nicer rooms, many amenities  - pools, fitness centers, restaurants, full breakfast buffet - and much better service, for only slightly higher rates.Plus, in our room and in our friends' room, we were subjected to the constant JACKHAMMER-LIKE noise of the hotel's ancient industrial washing machine all day long,  starting at 7AM on a Sunday! A freight train rolling through your room non-stop would be quieter. We went online and found a great deal at a full-service hotel for a much, much nicer room. Well worth just a few dollars more. We won't return to the Days Inn.More</t>
   </si>
   <si>
+    <t>AlittleBirdie92069</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r344658685-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -777,6 +867,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>acpatterson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r330897675-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -795,6 +888,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Fernando P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r327697652-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -810,6 +906,9 @@
     <t>The attendee was incredibly rude, and when I asked to talk to a supervisor, she yelled at me "I'm the supervisor!" plain awful. She was ready to throw my credit card at me. Overall, the hotel was old and the room smelled funny. I had a much much better experience at the Days Inn outside of Disneyland. So dissappointing.</t>
   </si>
   <si>
+    <t>shaySanFrancisco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r325588954-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -825,6 +924,9 @@
     <t xml:space="preserve">The bathroom was filthy  - there were phone numbers written on the inside of the bathroom door and dead bugs on the floor. </t>
   </si>
   <si>
+    <t>185derwinj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r320211519-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -846,6 +948,9 @@
     <t>I booked a room, then used my points for a couple nites, but change my mind only use for one night, i called the Wydum to make the change they went and charge my card again now causing a overdraft on my bank account even the front desk person where i was staying at tried to explain to the CSR it wasnt nessiary for them charge me again since my card was already.now i have to wait 7 busness days before i can get my money bank into my account after all the screw ups and being a gold card member the Wydum should e-mailing me apologizing and giving me a free night.   More</t>
   </si>
   <si>
+    <t>956richardu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r316458741-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -861,6 +966,9 @@
     <t>As in all business you generally get what you pay for. The grounds around motel need a lot of cleaning.</t>
   </si>
   <si>
+    <t>Tokuhama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r316454755-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -876,6 +984,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Virginia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r298074558-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -894,6 +1005,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>ramy_yossef</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r293554869-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -912,6 +1026,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>409karissag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r291535380-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -927,6 +1044,9 @@
     <t>We enjoyed the location of this hotel, nice and quiet neighborhood within reasonable distance of all the places we planned on visiting.The only thing that would have made our stay better would be more options in the continental breakfast as well as faster internet...we are not from the area and got behind schedule searching for directions online because the service was so slow.</t>
   </si>
   <si>
+    <t>murphyg770</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r273500173-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -945,6 +1065,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Shannon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r270065760-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -963,6 +1086,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Megan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r269987711-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -975,6 +1101,9 @@
     <t>I needed to crash for one night and the Day's Inn was a perfect solution. It was a great value for the rate I paid. If you're picky about everything you won't be happy here. The room was clean and had internet. I was happy.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r255413623-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -993,6 +1122,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>B3778MWdonnab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r252835835-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1008,6 +1140,9 @@
     <t>The room was very clean and staff was very pleasant. The room definitely needs some updates. Electrical outlets were not sufficient to hold plugs. Could not get TV to work. It may have been unplugged but could not get to the plug and the plug that was available was full of plugs from microwave and light. Had to move coffee pot into bathroom to work. Some lights had bulbs missing. Would probably not stay there again. Sorry</t>
   </si>
   <si>
+    <t>nancycY4269BS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r246627924-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1026,6 +1161,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Gisela L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r214353922-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1044,6 +1182,9 @@
     <t>Our first night was ok. When we got there, they told us the carpet had been steamed cleaned so the carpet was wet. Throughout our stay our feet and socks got all black and gross, so we had to wear our shoes. Then the following day,  some guy was next door to us and he put the music full blast, was all high,  kept going in and out of the room. He was making all sorts of crazy noises, and with 2 children in my room, we were freaked out. The cops came a couple of times, but nothing was done. We didn't feel comfortable staying another day, so we checked out 1 day early, and got our money back. Not family friendly at all!!! Breakfast was a joke, boxed pastries and juice was it!More</t>
   </si>
   <si>
+    <t>Robin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r208520585-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1062,6 +1203,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Robert K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r206497512-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1077,6 +1221,9 @@
     <t>Close to the Block and Metrolink, No pool. Basic room with Micro and Fridge.Dont be late for breakfast, it's gone.Need basic stay, not very expensive, book it.</t>
   </si>
   <si>
+    <t>Mary A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r203339196-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1095,6 +1242,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>weperez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r198335480-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1113,6 +1263,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>occraig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r188445470-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1131,6 +1284,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>harmonie143</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r177574584-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1152,6 +1308,9 @@
     <t>It looked decent on the outside. When we checked in the guy didn't even seem like he cared. When we asked for help with a taxi, it felt like we were treated like idiots. My room looked like it was cleaned but my sister's room still had blonde hair (our hair is black) on the bed. The microwaves and fridges looked like they were going to break down. The lights worked in my room, but not in my sister's. We only stayed one night and it was after a Dave &amp; Busters drunken night of fun so when we got back we didn't care that the room was gross or broken. Breakfast was okay: instant oatmeal, instant noodle cups, danishes or something like that... With juice and I think there was coffee too but I don't drink it so I didn't bother looking.More</t>
   </si>
   <si>
+    <t>Rayleen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r177435751-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1170,6 +1329,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>JCStolz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r176634598-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1188,6 +1350,9 @@
     <t>I don't get why all the bad reviews on this place.  I have stayed in two star hotels that are way worse than this one.  The room was well kept, not small at all. Comes with a fridge and microwave. The TV is a up to date flat screen.  Housekeeping did a better job than a lot of 4 star hotel housekeeping does that I have witnessed.    I had some trouble with the internet but the staff was very nice and helpful on getting it working right.  The place could use some work I do agree with that especially the outdoor seating area and the vending machine being more stocked up.More</t>
   </si>
   <si>
+    <t>Elizabeth J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r171803580-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1206,6 +1371,9 @@
     <t>Do not stay at Days Inn. Although our room was somewhat clean, the beds were of such poor quality and so hard that it was impossible to sleep. The breakfast was a joke with stale sweet rolls, dried out cereal and unrefrigerated milk. it was set up on a very small table that did not look clean. When I checked in and out the clerks were not friendly, slow and disinterested. When I climbed the stairs to the second floor, I found at the top that I had to climb over the vacuum cleaner that the cleaning person had abandoned along with the cleaning cart, it could have been a very dangerous situation for someone who was not sure-footed. I will never stay at a Days Inn again. More</t>
   </si>
   <si>
+    <t>Arlene O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r171221732-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1221,6 +1389,9 @@
     <t xml:space="preserve">Stunk like dead rat in the old outdated restroom. The bedroom smelled awful as well. Covers were drabby. Only his thing was the pillows.Made reservations for nonsmoking, I get there , they didn't have any rooms left, ccouldnt find my reservation. </t>
   </si>
   <si>
+    <t>Monica D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r170374132-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1242,6 +1413,9 @@
     <t>Barely passable hotel with clean enough rooms, I guess. Breakfast was as simple and cheap as you could get (generic instant oatmeal, cup noodles, toast a cold cereal were offered). Owner or manager standing outside office smoking (yuk), drippy faucet, weird clock that made noises for no reason, construction nearby that starts at 7 am. Bulb out in one of the fixtures. Pillows were awful and i am so glad i brought my own. If I were paying $59 a night I would expect this, but at $100 a night I would expect better. Woman at the front desk was friendly enough and tried to address my concerns. Housekeeping did come in and bring fresh towels, made beds, etc. every day. Parking was free and convenient. More</t>
   </si>
   <si>
+    <t>Patrick K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r164971070-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1269,6 +1443,9 @@
     <t>If you like dirty rusty showers, electrical outlets don't work, hair dryers that are bolted to the walls and don't work....There is NO pride by the owner of this hotel. Management and owners are CHEAP CHEAP CHEAP...outdated, dirty, noisy, no pool, hospital down the street, ambulances sirens all day and night.....need I say more?More</t>
   </si>
   <si>
+    <t>Jessica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r163832930-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1287,6 +1464,9 @@
     <t>I was very upsset at the service. I usually enjoy days inn, but really want a refund, they served raman noodles as the continental breakfast. Staff was unhelpful and room was dirty, disorganized, A/C did not work. More</t>
   </si>
   <si>
+    <t>nur1991</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r162384935-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1305,6 +1485,9 @@
     <t>I have stayed in pretty bad hotels.... but this topped it. I actually left after an 1.5 hr in the room. I asked for a refund and none was given. The couch had residue on it. Electrical was bad.. it shocked me. Had to fight with the wifi, tv, mini fridge. I will NEVER stay at another Days Inn.More</t>
   </si>
   <si>
+    <t>Leland P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r154888387-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1323,6 +1506,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Hilton_SD_Resort_Spa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r152309347-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1338,6 +1524,9 @@
     <t>We found a cheap room during Valentine's day weekend so we knew it wasn't going to be great but this was awful. First off the front desk woman Eva was absolutely horrible. She actually yelled at us for asking if they had a non smoking since we accidentally booked smoking. Then shooed us out of the lobby for apparently taking too long. Room needed renovation along with the whole hotel. Continental breakfast was bread and juice. Never recommend this place to anyone and very disappointed with Days Inn franchise for allowing such poor hotel service and rotten building.</t>
   </si>
   <si>
+    <t>RONALD V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r148083246-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1374,6 +1563,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>CHLOE W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r143219039-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1389,6 +1581,9 @@
     <t>This hotel didn't provide free wifi, and my room didn't have blinds- only curtains that didn't entirely close. Being on the bottom floor and traveling alone, I felt a little sketched out by that. The beds weren't very comfortable, but they weren't terrible. Also, there were no actual lights- just lamps! Everything was kept extremely clean, though, and I feel that the lack of luxury can just be attributed to the low price. It gave me a place to sleep, which was all I needed.. But the wifi and blinds on the windows are pretty essential, I think!</t>
   </si>
   <si>
+    <t>C A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r143207197-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1404,6 +1599,9 @@
     <t>The location of days Inn is why we stayed as our daughter was to have surgery the next day at St. Joseph hospital. The Room was in bad shape or general disrepair. The cable/electrical covers loose and missing. The wall light did not work but I found that was due to being unplugged. The air conditioning did not cool the air so it was miserable all night. I tried to open the windows but they had no screens and no internal window lock the hotel had put screw security locks on so the windows opened half way and would not lock when shut. So if someone tried to break in they could just open the window and come in. The noise level gets loud with the traffic pattern. The staff was great but the room was a bummer, not worth the money.More</t>
   </si>
   <si>
+    <t>Disneylandmomof3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r134754480-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1425,6 +1623,9 @@
     <t>I booked a hotel stay with Anaheim Days Inn Orange because we were going to need a suite.  WE NEVER ACTUALLY STAYED! We were staying at the Clarion the first night of our stay and wanted to check out the location of the Days Inn before we checked in. The hotel itself is in a seedy area with an empty dirty field behind it.  It is very outdated. There were indivuals coming out of the hotel who worried me.  I immediately called Days Inn to cancel our reservation.  After being on hold for an hour and a half I was finally helped.  I can say that after the hour and a half wait our reservations were canceled without charge, but don't be fooled by other Days Inn and Suites in the area. This one is nothing like the others.  For what I was being charged you can get a much better hotel deal at another location.  If you choose a Days Inn avoid this one.More</t>
   </si>
   <si>
+    <t>Jahmok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r133896947-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1443,6 +1644,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>zomgitsally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r126667336-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1461,6 +1665,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Eastwind279</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r88678537-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
   </si>
   <si>
@@ -1480,6 +1687,9 @@
   </si>
   <si>
     <t>Well, we stayed 2 nights and found the beds very comfortable. That's where the good stuff ends. We found the toilet to be loose on the floor and consequently the seal is compromised and it leaks out onto the floor. As with many motels, no one checks the drains in the sinks. This was also a problem. The sink needed a shot of good Drano. We also brought back some doggy bags from a restaurant to have later. We placed the food in the microwave oven to find that it did not work. It lit up, rotated the carousel but did not heat. Cold spaghetti is not my favorite. When morning came we found the "complimentary continental breakfast" to be non-existant. The office was locked as late as 7:15. This property shows signs of needing TLC to be a nice Days Inn. All in all, we should have stayed somewhere else.More</t>
+  </si>
+  <si>
+    <t>vacationer2007_7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32825-d78224-r63267749-Days_Inn_by_Wyndham_Orange_Anaheim-Orange_California.html</t>
@@ -2005,43 +2215,47 @@
       <c r="A2" t="n">
         <v>10752</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>134603</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2063,56 +2277,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10752</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>134604</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2134,56 +2352,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10752</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>134605</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2195,56 +2417,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10752</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>134606</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2266,56 +2492,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10752</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>134607</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2337,56 +2567,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10752</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>134608</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2408,56 +2642,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10752</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>134609</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2481,50 +2719,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10752</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>134610</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2542,50 +2784,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10752</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>134611</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2607,56 +2853,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10752</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>134612</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2678,56 +2928,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10752</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>134613</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2749,56 +3003,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10752</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>134614</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -2820,56 +3078,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10752</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>134615</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2891,56 +3153,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10752</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>134616</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2962,56 +3228,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10752</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>134617</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3033,56 +3303,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X16" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10752</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>134618</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3102,56 +3376,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X17" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10752</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>134619</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3173,56 +3451,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X18" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10752</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>134620</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3244,56 +3526,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X19" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10752</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>40699</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3317,50 +3603,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10752</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>134621</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3380,50 +3670,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10752</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>134622</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3447,50 +3741,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10752</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3512,56 +3810,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10752</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>134623</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>207</v>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>187</v>
-      </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3583,56 +3885,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10752</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>134624</v>
+      </c>
+      <c r="C25" t="s">
+        <v>232</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3654,56 +3960,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X25" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10752</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>23651</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3725,56 +4035,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X26" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10752</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>134625</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3796,56 +4110,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X27" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10752</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>134626</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3867,56 +4185,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="X28" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10752</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>134627</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3940,50 +4262,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10752</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3997,50 +4323,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10752</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>134628</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4064,50 +4394,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10752</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>134629</v>
+      </c>
+      <c r="C32" t="s">
+        <v>283</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4123,50 +4457,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10752</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>134630</v>
+      </c>
+      <c r="C33" t="s">
+        <v>290</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4182,50 +4520,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10752</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>134631</v>
+      </c>
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4249,50 +4591,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10752</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>134632</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4316,50 +4662,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10752</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>134633</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4383,50 +4733,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10752</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>134634</v>
+      </c>
+      <c r="C37" t="s">
+        <v>316</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="J37" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4450,50 +4804,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10752</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>30938</v>
+      </c>
+      <c r="C38" t="s">
+        <v>322</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4517,50 +4875,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10752</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>134635</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="J39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4584,50 +4946,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10752</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>134636</v>
+      </c>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4651,50 +5017,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10752</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>134637</v>
+      </c>
+      <c r="C41" t="s">
+        <v>342</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="J41" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4718,50 +5088,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10752</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>5544</v>
+      </c>
+      <c r="C42" t="s">
+        <v>349</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="J42" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="K42" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4785,50 +5159,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10752</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>134638</v>
+      </c>
+      <c r="C43" t="s">
+        <v>356</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J43" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4852,50 +5230,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10752</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>361</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="J44" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="K44" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4919,50 +5301,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10752</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>134639</v>
+      </c>
+      <c r="C45" t="s">
+        <v>368</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="J45" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="K45" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="L45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4984,50 +5370,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10752</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>134640</v>
+      </c>
+      <c r="C46" t="s">
+        <v>374</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="J46" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="K46" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5051,41 +5441,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10752</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>134641</v>
+      </c>
+      <c r="C47" t="s">
+        <v>381</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="J47" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="K47" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -5114,50 +5508,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10752</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>12122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>388</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="J48" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="K48" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="L48" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5181,50 +5579,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10752</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>9075</v>
+      </c>
+      <c r="C49" t="s">
+        <v>395</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="J49" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="K49" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L49" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5248,50 +5650,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10752</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>41404</v>
+      </c>
+      <c r="C50" t="s">
+        <v>401</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="J50" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="K50" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="L50" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="O50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5315,50 +5721,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>10752</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>134642</v>
+      </c>
+      <c r="C51" t="s">
+        <v>408</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J51" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="K51" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5382,50 +5792,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>10752</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>134643</v>
+      </c>
+      <c r="C52" t="s">
+        <v>415</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="J52" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="K52" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5439,50 +5853,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>10752</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>134644</v>
+      </c>
+      <c r="C53" t="s">
+        <v>422</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="J53" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="K53" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="L53" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="O53" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5506,50 +5924,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>10752</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>134645</v>
+      </c>
+      <c r="C54" t="s">
+        <v>430</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="J54" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="K54" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="O54" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5573,50 +5995,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>10752</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>134646</v>
+      </c>
+      <c r="C55" t="s">
+        <v>437</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="J55" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="K55" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="L55" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5640,50 +6066,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>10752</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>38173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>444</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="J56" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="K56" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="L56" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5707,50 +6137,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>10752</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>36922</v>
+      </c>
+      <c r="C57" t="s">
+        <v>451</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="J57" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K57" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="L57" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5774,50 +6208,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>10752</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>29302</v>
+      </c>
+      <c r="C58" t="s">
+        <v>457</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="J58" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="K58" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5841,50 +6279,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>10752</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>11711</v>
+      </c>
+      <c r="C59" t="s">
+        <v>465</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="J59" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="K59" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="L59" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -5906,56 +6348,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="X59" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="Y59" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>10752</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C60" t="s">
+        <v>475</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="J60" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="K60" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="L60" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -5977,47 +6423,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="X60" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="Y60" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>10752</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>134647</v>
+      </c>
+      <c r="C61" t="s">
+        <v>482</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="J61" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="K61" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="L61" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
@@ -6044,56 +6494,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="X61" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="Y61" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>10752</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>134648</v>
+      </c>
+      <c r="C62" t="s">
+        <v>489</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="J62" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="K62" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="L62" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="O62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6117,41 +6571,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>10752</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>134649</v>
+      </c>
+      <c r="C63" t="s">
+        <v>496</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="J63" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="K63" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="L63" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
@@ -6180,50 +6638,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10752</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>134650</v>
+      </c>
+      <c r="C64" t="s">
+        <v>502</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="J64" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="K64" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6247,50 +6709,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>10752</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>361</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="J65" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="K65" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="L65" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6314,50 +6780,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>10752</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>134651</v>
+      </c>
+      <c r="C66" t="s">
+        <v>515</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="J66" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="K66" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="L66" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6381,50 +6851,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>10752</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>42150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>521</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="J67" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="K67" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="L67" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6448,50 +6922,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>10752</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>134652</v>
+      </c>
+      <c r="C68" t="s">
+        <v>527</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="J68" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="K68" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="L68" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6511,50 +6989,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>10752</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>134653</v>
+      </c>
+      <c r="C69" t="s">
+        <v>535</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
       <c r="J69" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="K69" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="L69" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="O69" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6578,50 +7060,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>10752</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>134654</v>
+      </c>
+      <c r="C70" t="s">
+        <v>542</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="J70" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="K70" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="L70" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="O70" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6645,50 +7131,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>10752</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>134655</v>
+      </c>
+      <c r="C71" t="s">
+        <v>549</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="J71" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="K71" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="L71" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="O71" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6712,50 +7202,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>10752</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>134656</v>
+      </c>
+      <c r="C72" t="s">
+        <v>557</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="J72" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="K72" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="L72" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6779,7 +7273,7 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_185.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_185.xlsx
@@ -2216,7 +2216,7 @@
         <v>10752</v>
       </c>
       <c r="B2" t="n">
-        <v>134603</v>
+        <v>165494</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2291,7 +2291,7 @@
         <v>10752</v>
       </c>
       <c r="B3" t="n">
-        <v>134604</v>
+        <v>165495</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2366,7 +2366,7 @@
         <v>10752</v>
       </c>
       <c r="B4" t="n">
-        <v>134605</v>
+        <v>165496</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -2431,7 +2431,7 @@
         <v>10752</v>
       </c>
       <c r="B5" t="n">
-        <v>134606</v>
+        <v>165497</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -2506,7 +2506,7 @@
         <v>10752</v>
       </c>
       <c r="B6" t="n">
-        <v>134607</v>
+        <v>165498</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -2581,7 +2581,7 @@
         <v>10752</v>
       </c>
       <c r="B7" t="n">
-        <v>134608</v>
+        <v>165499</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -2656,7 +2656,7 @@
         <v>10752</v>
       </c>
       <c r="B8" t="n">
-        <v>134609</v>
+        <v>165500</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -2727,7 +2727,7 @@
         <v>10752</v>
       </c>
       <c r="B9" t="n">
-        <v>134610</v>
+        <v>165501</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -2792,7 +2792,7 @@
         <v>10752</v>
       </c>
       <c r="B10" t="n">
-        <v>134611</v>
+        <v>165502</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
@@ -2867,7 +2867,7 @@
         <v>10752</v>
       </c>
       <c r="B11" t="n">
-        <v>134612</v>
+        <v>165503</v>
       </c>
       <c r="C11" t="s">
         <v>121</v>
@@ -2942,7 +2942,7 @@
         <v>10752</v>
       </c>
       <c r="B12" t="n">
-        <v>134613</v>
+        <v>165504</v>
       </c>
       <c r="C12" t="s">
         <v>131</v>
@@ -3017,7 +3017,7 @@
         <v>10752</v>
       </c>
       <c r="B13" t="n">
-        <v>134614</v>
+        <v>165505</v>
       </c>
       <c r="C13" t="s">
         <v>138</v>
@@ -3092,7 +3092,7 @@
         <v>10752</v>
       </c>
       <c r="B14" t="n">
-        <v>134615</v>
+        <v>165506</v>
       </c>
       <c r="C14" t="s">
         <v>147</v>
@@ -3167,7 +3167,7 @@
         <v>10752</v>
       </c>
       <c r="B15" t="n">
-        <v>134616</v>
+        <v>165507</v>
       </c>
       <c r="C15" t="s">
         <v>155</v>
@@ -3242,7 +3242,7 @@
         <v>10752</v>
       </c>
       <c r="B16" t="n">
-        <v>134617</v>
+        <v>165508</v>
       </c>
       <c r="C16" t="s">
         <v>163</v>
@@ -3317,7 +3317,7 @@
         <v>10752</v>
       </c>
       <c r="B17" t="n">
-        <v>134618</v>
+        <v>165509</v>
       </c>
       <c r="C17" t="s">
         <v>170</v>
@@ -3390,7 +3390,7 @@
         <v>10752</v>
       </c>
       <c r="B18" t="n">
-        <v>134619</v>
+        <v>165510</v>
       </c>
       <c r="C18" t="s">
         <v>178</v>
@@ -3465,7 +3465,7 @@
         <v>10752</v>
       </c>
       <c r="B19" t="n">
-        <v>134620</v>
+        <v>165511</v>
       </c>
       <c r="C19" t="s">
         <v>187</v>
@@ -3611,7 +3611,7 @@
         <v>10752</v>
       </c>
       <c r="B21" t="n">
-        <v>134621</v>
+        <v>165512</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
@@ -3678,7 +3678,7 @@
         <v>10752</v>
       </c>
       <c r="B22" t="n">
-        <v>134622</v>
+        <v>165513</v>
       </c>
       <c r="C22" t="s">
         <v>209</v>
@@ -3824,7 +3824,7 @@
         <v>10752</v>
       </c>
       <c r="B24" t="n">
-        <v>134623</v>
+        <v>165514</v>
       </c>
       <c r="C24" t="s">
         <v>225</v>
@@ -3899,7 +3899,7 @@
         <v>10752</v>
       </c>
       <c r="B25" t="n">
-        <v>134624</v>
+        <v>165515</v>
       </c>
       <c r="C25" t="s">
         <v>232</v>
@@ -4049,7 +4049,7 @@
         <v>10752</v>
       </c>
       <c r="B27" t="n">
-        <v>134625</v>
+        <v>165516</v>
       </c>
       <c r="C27" t="s">
         <v>247</v>
@@ -4124,7 +4124,7 @@
         <v>10752</v>
       </c>
       <c r="B28" t="n">
-        <v>134626</v>
+        <v>165517</v>
       </c>
       <c r="C28" t="s">
         <v>254</v>
@@ -4199,7 +4199,7 @@
         <v>10752</v>
       </c>
       <c r="B29" t="n">
-        <v>134627</v>
+        <v>165518</v>
       </c>
       <c r="C29" t="s">
         <v>261</v>
@@ -4331,7 +4331,7 @@
         <v>10752</v>
       </c>
       <c r="B31" t="n">
-        <v>134628</v>
+        <v>165519</v>
       </c>
       <c r="C31" t="s">
         <v>276</v>
@@ -4402,7 +4402,7 @@
         <v>10752</v>
       </c>
       <c r="B32" t="n">
-        <v>134629</v>
+        <v>165520</v>
       </c>
       <c r="C32" t="s">
         <v>283</v>
@@ -4465,7 +4465,7 @@
         <v>10752</v>
       </c>
       <c r="B33" t="n">
-        <v>134630</v>
+        <v>165521</v>
       </c>
       <c r="C33" t="s">
         <v>290</v>
@@ -4528,7 +4528,7 @@
         <v>10752</v>
       </c>
       <c r="B34" t="n">
-        <v>134631</v>
+        <v>165522</v>
       </c>
       <c r="C34" t="s">
         <v>296</v>
@@ -4599,7 +4599,7 @@
         <v>10752</v>
       </c>
       <c r="B35" t="n">
-        <v>134632</v>
+        <v>165523</v>
       </c>
       <c r="C35" t="s">
         <v>302</v>
@@ -4670,7 +4670,7 @@
         <v>10752</v>
       </c>
       <c r="B36" t="n">
-        <v>134633</v>
+        <v>165524</v>
       </c>
       <c r="C36" t="s">
         <v>310</v>
@@ -4741,7 +4741,7 @@
         <v>10752</v>
       </c>
       <c r="B37" t="n">
-        <v>134634</v>
+        <v>165525</v>
       </c>
       <c r="C37" t="s">
         <v>316</v>
@@ -4883,7 +4883,7 @@
         <v>10752</v>
       </c>
       <c r="B39" t="n">
-        <v>134635</v>
+        <v>165526</v>
       </c>
       <c r="C39" t="s">
         <v>329</v>
@@ -4954,7 +4954,7 @@
         <v>10752</v>
       </c>
       <c r="B40" t="n">
-        <v>134636</v>
+        <v>165527</v>
       </c>
       <c r="C40" t="s">
         <v>336</v>
@@ -5025,7 +5025,7 @@
         <v>10752</v>
       </c>
       <c r="B41" t="n">
-        <v>134637</v>
+        <v>165528</v>
       </c>
       <c r="C41" t="s">
         <v>342</v>
@@ -5167,7 +5167,7 @@
         <v>10752</v>
       </c>
       <c r="B43" t="n">
-        <v>134638</v>
+        <v>165529</v>
       </c>
       <c r="C43" t="s">
         <v>356</v>
@@ -5309,7 +5309,7 @@
         <v>10752</v>
       </c>
       <c r="B45" t="n">
-        <v>134639</v>
+        <v>165530</v>
       </c>
       <c r="C45" t="s">
         <v>368</v>
@@ -5378,7 +5378,7 @@
         <v>10752</v>
       </c>
       <c r="B46" t="n">
-        <v>134640</v>
+        <v>165531</v>
       </c>
       <c r="C46" t="s">
         <v>374</v>
@@ -5449,7 +5449,7 @@
         <v>10752</v>
       </c>
       <c r="B47" t="n">
-        <v>134641</v>
+        <v>165532</v>
       </c>
       <c r="C47" t="s">
         <v>381</v>
@@ -5729,7 +5729,7 @@
         <v>10752</v>
       </c>
       <c r="B51" t="n">
-        <v>134642</v>
+        <v>165533</v>
       </c>
       <c r="C51" t="s">
         <v>408</v>
@@ -5800,7 +5800,7 @@
         <v>10752</v>
       </c>
       <c r="B52" t="n">
-        <v>134643</v>
+        <v>165534</v>
       </c>
       <c r="C52" t="s">
         <v>415</v>
@@ -5861,7 +5861,7 @@
         <v>10752</v>
       </c>
       <c r="B53" t="n">
-        <v>134644</v>
+        <v>165535</v>
       </c>
       <c r="C53" t="s">
         <v>422</v>
@@ -5932,7 +5932,7 @@
         <v>10752</v>
       </c>
       <c r="B54" t="n">
-        <v>134645</v>
+        <v>165536</v>
       </c>
       <c r="C54" t="s">
         <v>430</v>
@@ -6003,7 +6003,7 @@
         <v>10752</v>
       </c>
       <c r="B55" t="n">
-        <v>134646</v>
+        <v>165537</v>
       </c>
       <c r="C55" t="s">
         <v>437</v>
@@ -6437,7 +6437,7 @@
         <v>10752</v>
       </c>
       <c r="B61" t="n">
-        <v>134647</v>
+        <v>165538</v>
       </c>
       <c r="C61" t="s">
         <v>482</v>
@@ -6508,7 +6508,7 @@
         <v>10752</v>
       </c>
       <c r="B62" t="n">
-        <v>134648</v>
+        <v>165539</v>
       </c>
       <c r="C62" t="s">
         <v>489</v>
@@ -6579,7 +6579,7 @@
         <v>10752</v>
       </c>
       <c r="B63" t="n">
-        <v>134649</v>
+        <v>165540</v>
       </c>
       <c r="C63" t="s">
         <v>496</v>
@@ -6646,7 +6646,7 @@
         <v>10752</v>
       </c>
       <c r="B64" t="n">
-        <v>134650</v>
+        <v>165541</v>
       </c>
       <c r="C64" t="s">
         <v>502</v>
@@ -6788,7 +6788,7 @@
         <v>10752</v>
       </c>
       <c r="B66" t="n">
-        <v>134651</v>
+        <v>165542</v>
       </c>
       <c r="C66" t="s">
         <v>515</v>
@@ -6930,7 +6930,7 @@
         <v>10752</v>
       </c>
       <c r="B68" t="n">
-        <v>134652</v>
+        <v>165543</v>
       </c>
       <c r="C68" t="s">
         <v>527</v>
@@ -6997,7 +6997,7 @@
         <v>10752</v>
       </c>
       <c r="B69" t="n">
-        <v>134653</v>
+        <v>165544</v>
       </c>
       <c r="C69" t="s">
         <v>535</v>
@@ -7068,7 +7068,7 @@
         <v>10752</v>
       </c>
       <c r="B70" t="n">
-        <v>134654</v>
+        <v>165545</v>
       </c>
       <c r="C70" t="s">
         <v>542</v>
@@ -7139,7 +7139,7 @@
         <v>10752</v>
       </c>
       <c r="B71" t="n">
-        <v>134655</v>
+        <v>165546</v>
       </c>
       <c r="C71" t="s">
         <v>549</v>
@@ -7210,7 +7210,7 @@
         <v>10752</v>
       </c>
       <c r="B72" t="n">
-        <v>134656</v>
+        <v>165547</v>
       </c>
       <c r="C72" t="s">
         <v>557</v>
